--- a/Data/EC/NIT-9004597375.xlsx
+++ b/Data/EC/NIT-9004597375.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC96240C-E54B-4BD9-86EB-8D69C28A0C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C46A32A-30FE-4AB1-9275-2773646B13FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD33B968-1369-466F-998A-29657872D5BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8CB2A54-A90E-4848-AEE3-07CD60AE43EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="93">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,214 +65,223 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050960436</t>
+  </si>
+  <si>
+    <t>BRIAN ANDRES MENDOZA NAVARRO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>9293901</t>
   </si>
   <si>
     <t>ROBERTO CARLOS CERVANTES REYES</t>
   </si>
   <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -686,7 +695,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1A3DBE-17E8-FE0B-0066-E592AE897197}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B62175-917C-204C-6ABD-A689F84ADF3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,8 +1046,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F078B5CC-6B82-429C-A9D5-847ADFFA6D64}">
-  <dimension ref="B2:J89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A10B22E-A12A-4AFA-9588-392CDC4B5477}">
+  <dimension ref="B2:J96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1062,7 +1071,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1107,7 +1116,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1139,12 +1148,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2252500</v>
+        <v>2564025</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1155,17 +1164,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F13" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1192,13 +1201,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1215,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1238,10 +1247,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1261,10 +1270,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1284,10 +1293,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1307,10 +1316,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1330,10 +1339,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1344,13 +1353,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1367,13 +1376,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1390,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1413,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1436,13 +1445,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1459,13 +1468,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1482,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1505,13 +1514,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1528,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1551,13 +1560,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1574,13 +1583,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1597,13 +1606,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1620,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1643,13 +1652,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1666,13 +1675,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1689,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1712,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1735,13 +1744,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1758,13 +1767,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1781,13 +1790,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1804,13 +1813,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1827,13 +1836,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1850,13 +1859,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1873,13 +1882,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1896,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1919,13 +1928,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1942,13 +1951,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -1965,13 +1974,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -1988,13 +1997,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -2011,13 +2020,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -2034,13 +2043,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -2057,13 +2066,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2080,13 +2089,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2103,13 +2112,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2126,13 +2135,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2149,13 +2158,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2172,13 +2181,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F58" s="18">
         <v>33125</v>
@@ -2195,13 +2204,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2218,13 +2227,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F60" s="18">
         <v>33125</v>
@@ -2241,13 +2250,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2264,13 +2273,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F62" s="18">
         <v>33125</v>
@@ -2287,13 +2296,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2310,13 +2319,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F64" s="18">
         <v>33125</v>
@@ -2333,13 +2342,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2356,13 +2365,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2379,13 +2388,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2402,13 +2411,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2425,13 +2434,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2448,13 +2457,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2471,13 +2480,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2494,13 +2503,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2517,13 +2526,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2540,13 +2549,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2563,13 +2572,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2586,13 +2595,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2609,13 +2618,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2632,13 +2641,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2655,13 +2664,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2678,13 +2687,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2701,13 +2710,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2724,13 +2733,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2743,56 +2752,217 @@
       <c r="J82" s="20"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="22" t="s">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G83" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F84" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G84" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F85" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G85" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F86" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G86" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G83" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="26"/>
+      <c r="F87" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G87" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" s="32"/>
-      <c r="H88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="B88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G88" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="H89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="B89" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F89" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G89" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F90" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G90" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="26"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="32"/>
+      <c r="H95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="H96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H95:J95"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004597375.xlsx
+++ b/Data/EC/NIT-9004597375.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C46A32A-30FE-4AB1-9275-2773646B13FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6743A37-7FF8-4AAB-9746-B14D36F835A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8CB2A54-A90E-4848-AEE3-07CD60AE43EB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{634A0FDD-67BE-4FE5-9081-E812ADD424D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,223 +65,220 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1050960436</t>
-  </si>
-  <si>
-    <t>BRIAN ANDRES MENDOZA NAVARRO</t>
+    <t>9293901</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS CERVANTES REYES</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>9293901</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS CERVANTES REYES</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -380,7 +377,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -393,9 +392,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -595,23 +592,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,10 +636,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,7 +692,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B62175-917C-204C-6ABD-A689F84ADF3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA660F1-F079-C30C-9C6B-8505703DA94A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,8 +1043,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A10B22E-A12A-4AFA-9588-392CDC4B5477}">
-  <dimension ref="B2:J96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3971BE8-D9D4-41D8-B433-2387AC775706}">
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1071,7 +1068,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1116,7 +1113,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1148,12 +1145,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2564025</v>
+        <v>2318750</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1164,17 +1161,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1201,13 +1198,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1224,10 +1221,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1247,10 +1244,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1270,10 +1267,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1293,10 +1290,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1316,10 +1313,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1339,10 +1336,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1353,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1376,13 +1373,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1399,13 +1396,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1422,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1445,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1468,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1491,13 +1488,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1514,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1537,13 +1534,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1560,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1583,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1606,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1629,13 +1626,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1652,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1675,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1698,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1721,13 +1718,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1744,13 +1741,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1767,13 +1764,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1790,13 +1787,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1813,13 +1810,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1836,13 +1833,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1859,13 +1856,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1882,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1905,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1928,13 +1925,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1951,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -1974,13 +1971,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -1997,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -2020,13 +2017,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -2043,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -2066,13 +2063,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2089,13 +2086,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2112,13 +2109,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2135,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2158,13 +2155,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2181,13 +2178,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>33125</v>
@@ -2204,13 +2201,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2227,13 +2224,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>33125</v>
@@ -2250,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2273,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>33125</v>
@@ -2296,13 +2293,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2319,13 +2316,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>33125</v>
@@ -2342,13 +2339,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2365,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2388,13 +2385,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2411,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2434,13 +2431,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2457,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2480,13 +2477,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2503,13 +2500,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2526,13 +2523,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2549,13 +2546,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2572,13 +2569,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2595,13 +2592,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2618,13 +2615,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2641,13 +2638,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2664,13 +2661,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2687,13 +2684,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2710,13 +2707,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2733,13 +2730,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2756,13 +2753,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
         <v>33125</v>
@@ -2779,13 +2776,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2798,171 +2795,56 @@
       <c r="J84" s="20"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F85" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G85" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F86" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G86" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F87" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G87" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F88" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G88" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="16" t="s">
+      <c r="B85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F89" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G89" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F85" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G85" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F90" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G90" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="26"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="32" t="s">
+      <c r="B90" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="H90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="H91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="H95" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B96" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="32"/>
-      <c r="H96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H90:J90"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
